--- a/docs/pictures/sourcing/Nomenclature_KOSMOS4.0_projet_IUEM.xlsx
+++ b/docs/pictures/sourcing/Nomenclature_KOSMOS4.0_projet_IUEM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofauvarq\Documents\GitHub\DocV4\docs\pictures\sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE6B36A-B4A7-4EC2-B40D-7B482B2BF753}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D922592F-9854-4986-81F0-E5738C785EAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1147,13 +1147,13 @@
     <t>https://www.amazon.co.uk/Socket-Washers-Stainless-Machine-Assortment/dp/B0D56DWST2</t>
   </si>
   <si>
-    <t>hexagon socket head cap screw nuts kit M3 600 pieces</t>
-  </si>
-  <si>
     <t>O Fauvarque</t>
   </si>
   <si>
     <t>Mauvaise référence, ce buzzer ne fonctionne pas</t>
+  </si>
+  <si>
+    <t>Hexagon socket head cap screw nuts kit M3 600 pieces</t>
   </si>
 </sst>
 </file>
@@ -1841,24 +1841,6 @@
     <xf numFmtId="0" fontId="28" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1904,6 +1886,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2132,14 +2132,14 @@
   <dimension ref="A1:XFC181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="51.58203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="56.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="33.58203125" style="4" customWidth="1"/>
@@ -2159,11 +2159,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12 16381:16383" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>45742</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
@@ -2218,7 +2218,7 @@
       <c r="XFC3" s="8"/>
     </row>
     <row r="4" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="114" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -2254,7 +2254,7 @@
       <c r="XFC4" s="8"/>
     </row>
     <row r="5" spans="1:12 16381:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="97"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="26" t="s">
         <v>18</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="XFC5" s="8"/>
     </row>
     <row r="6" spans="1:12 16381:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="97"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="26" t="s">
         <v>22</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="XFC6" s="8"/>
     </row>
     <row r="7" spans="1:12 16381:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="26" t="s">
         <v>25</v>
       </c>
@@ -2353,7 +2353,7 @@
       <c r="XFC7" s="8"/>
     </row>
     <row r="8" spans="1:12 16381:16383" s="34" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="29" t="s">
         <v>28</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="XFC8" s="8"/>
     </row>
     <row r="9" spans="1:12 16381:16383" s="28" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="26" t="s">
         <v>31</v>
       </c>
@@ -2419,7 +2419,7 @@
       <c r="XFC9" s="8"/>
     </row>
     <row r="10" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="97"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="26" t="s">
         <v>35</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="XFC10" s="8"/>
     </row>
     <row r="11" spans="1:12 16381:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="97"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="26" t="s">
         <v>39</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="XFC11" s="8"/>
     </row>
     <row r="12" spans="1:12 16381:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="97"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="19" t="s">
         <v>43</v>
       </c>
@@ -2524,7 +2524,7 @@
       <c r="XFC12" s="8"/>
     </row>
     <row r="13" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="97"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="26" t="s">
         <v>46</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="XFC13" s="8"/>
     </row>
     <row r="14" spans="1:12 16381:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="19" t="s">
         <v>49</v>
       </c>
@@ -2592,7 +2592,7 @@
       <c r="XFC14" s="8"/>
     </row>
     <row r="15" spans="1:12 16381:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="97"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="19" t="s">
         <v>52</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="XFC15" s="8"/>
     </row>
     <row r="16" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="97"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="26" t="s">
         <v>55</v>
       </c>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>41</v>
@@ -2662,7 +2662,7 @@
       <c r="XFC16" s="8"/>
     </row>
     <row r="17" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="97"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="26" t="s">
         <v>58</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="XFC17" s="8"/>
     </row>
     <row r="18" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="97"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="26" t="s">
         <v>61</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="XFC18" s="8"/>
     </row>
     <row r="19" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="97"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="26" t="s">
         <v>64</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="XFC19" s="8"/>
     </row>
     <row r="20" spans="1:11 16378:16383" s="7" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="36" t="s">
         <v>66</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="XFC20" s="8"/>
     </row>
     <row r="21" spans="1:11 16378:16383" s="7" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="97"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="36" t="s">
         <v>69</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="XFC21" s="8"/>
     </row>
     <row r="22" spans="1:11 16378:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="97"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="26" t="s">
         <v>72</v>
       </c>
@@ -2878,7 +2878,7 @@
       <c r="XFC22" s="8"/>
     </row>
     <row r="23" spans="1:11 16378:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="97"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="26" t="s">
         <v>76</v>
       </c>
@@ -2914,7 +2914,7 @@
       <c r="XFC23" s="8"/>
     </row>
     <row r="24" spans="1:11 16378:16383" s="5" customFormat="1" ht="52.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="97"/>
+      <c r="A24" s="114"/>
       <c r="B24" s="26" t="s">
         <v>79</v>
       </c>
@@ -2947,7 +2947,7 @@
       <c r="XFC24" s="8"/>
     </row>
     <row r="25" spans="1:11 16378:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="97"/>
+      <c r="A25" s="114"/>
       <c r="B25" s="26" t="s">
         <v>82</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="XFC25" s="8"/>
     </row>
     <row r="26" spans="1:11 16378:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
+      <c r="A26" s="114"/>
       <c r="B26" s="26" t="s">
         <v>85</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="XFC26" s="8"/>
     </row>
     <row r="27" spans="1:11 16378:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="97"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="26" t="s">
         <v>88</v>
       </c>
@@ -3046,7 +3046,7 @@
       <c r="XFC27" s="8"/>
     </row>
     <row r="28" spans="1:11 16378:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="97"/>
+      <c r="A28" s="114"/>
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="XFC28" s="8"/>
     </row>
     <row r="29" spans="1:11 16378:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="97"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="26" t="s">
         <v>94</v>
       </c>
@@ -3111,8 +3111,8 @@
       <c r="XFB29" s="7"/>
       <c r="XFC29" s="8"/>
     </row>
-    <row r="30" spans="1:11 16378:16383" s="7" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="97"/>
+    <row r="30" spans="1:11 16378:16383" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="114"/>
       <c r="B30" s="36" t="s">
         <v>97</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="XFC30" s="8"/>
     </row>
     <row r="31" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="97"/>
+      <c r="A31" s="114"/>
       <c r="B31" s="19" t="s">
         <v>101</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="XFC31" s="8"/>
     </row>
     <row r="32" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="97"/>
+      <c r="A32" s="114"/>
       <c r="B32" s="72" t="s">
         <v>105</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="XFC32" s="8"/>
     </row>
     <row r="33" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="97"/>
+      <c r="A33" s="114"/>
       <c r="B33" s="72" t="s">
         <v>356</v>
       </c>
@@ -3241,7 +3241,7 @@
       <c r="XFC33" s="8"/>
     </row>
     <row r="34" spans="1:11 16381:16383" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="100"/>
+      <c r="A34" s="117"/>
       <c r="B34" s="87" t="s">
         <v>355</v>
       </c>
@@ -3261,40 +3261,40 @@
       <c r="XFB34" s="7"/>
       <c r="XFC34" s="8"/>
     </row>
-    <row r="35" spans="1:11 16381:16383" s="111" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="113"/>
-      <c r="B35" s="114" t="s">
+    <row r="35" spans="1:11 16381:16383" s="105" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="107"/>
+      <c r="B35" s="108" t="s">
         <v>361</v>
       </c>
-      <c r="C35" s="115" t="s">
+      <c r="C35" s="109" t="s">
         <v>362</v>
       </c>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="116" t="s">
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="117" t="s">
+      <c r="G35" s="111" t="s">
         <v>360</v>
       </c>
-      <c r="H35" s="118">
+      <c r="H35" s="112">
         <v>1</v>
       </c>
-      <c r="I35" s="108">
+      <c r="I35" s="102">
         <v>44.73</v>
       </c>
-      <c r="J35" s="119">
+      <c r="J35" s="113">
         <v>53.68</v>
       </c>
-      <c r="K35" s="108">
+      <c r="K35" s="102">
         <f>J35*H35</f>
         <v>53.68</v>
       </c>
-      <c r="XFA35" s="109"/>
-      <c r="XFB35" s="110"/>
-      <c r="XFC35" s="109"/>
+      <c r="XFA35" s="103"/>
+      <c r="XFB35" s="104"/>
+      <c r="XFC35" s="103"/>
     </row>
-    <row r="36" spans="1:11 16381:16383" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11 16381:16383" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="85"/>
       <c r="B36" s="96" t="s">
         <v>370</v>
@@ -3314,10 +3314,10 @@
       <c r="XFB36" s="7"/>
       <c r="XFC36" s="8"/>
     </row>
-    <row r="37" spans="1:11 16381:16383" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11 16381:16383" s="5" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="85"/>
       <c r="B37" s="96" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C37" s="83"/>
       <c r="D37" s="21"/>
@@ -3372,7 +3372,7 @@
       <c r="XFC39" s="8"/>
     </row>
     <row r="40" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="101" t="s">
+      <c r="A40" s="118" t="s">
         <v>108</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -3412,7 +3412,7 @@
       <c r="XFC40" s="8"/>
     </row>
     <row r="41" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="101"/>
+      <c r="A41" s="118"/>
       <c r="B41" s="49" t="s">
         <v>115</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="XFC41" s="8"/>
     </row>
     <row r="42" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="101"/>
+      <c r="A42" s="118"/>
       <c r="B42" s="49" t="s">
         <v>120</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="XFC42" s="8"/>
     </row>
     <row r="43" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="101"/>
+      <c r="A43" s="118"/>
       <c r="B43" s="49" t="s">
         <v>125</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="XFC43" s="8"/>
     </row>
     <row r="44" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="101"/>
+      <c r="A44" s="118"/>
       <c r="B44" s="49" t="s">
         <v>130</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="XFC44" s="8"/>
     </row>
     <row r="45" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="101"/>
+      <c r="A45" s="118"/>
       <c r="B45" s="49" t="s">
         <v>134</v>
       </c>
@@ -3602,7 +3602,7 @@
       <c r="XFC45" s="8"/>
     </row>
     <row r="46" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="101"/>
+      <c r="A46" s="118"/>
       <c r="B46" s="49" t="s">
         <v>138</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="XFC46" s="8"/>
     </row>
     <row r="47" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="101"/>
+      <c r="A47" s="118"/>
       <c r="B47" s="49" t="s">
         <v>143</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="XFC47" s="8"/>
     </row>
     <row r="48" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="101"/>
+      <c r="A48" s="118"/>
       <c r="B48" s="49" t="s">
         <v>147</v>
       </c>
@@ -3716,7 +3716,7 @@
       <c r="XFC48" s="8"/>
     </row>
     <row r="49" spans="1:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="101"/>
+      <c r="A49" s="118"/>
       <c r="B49" s="90" t="s">
         <v>147</v>
       </c>
@@ -3743,90 +3743,90 @@
       <c r="XFB49" s="7"/>
       <c r="XFC49" s="8"/>
     </row>
-    <row r="50" spans="1:16383" s="111" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="101"/>
-      <c r="B50" s="103" t="s">
+    <row r="50" spans="1:16383" s="105" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="118"/>
+      <c r="B50" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="104" t="s">
+      <c r="C50" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="105" t="s">
+      <c r="D50" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="112" t="s">
+      <c r="E50" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="F50" s="105" t="s">
+      <c r="F50" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="G50" s="106" t="s">
+      <c r="G50" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="H50" s="107">
+      <c r="H50" s="101">
         <v>1</v>
       </c>
-      <c r="I50" s="108">
+      <c r="I50" s="102">
         <v>20</v>
       </c>
-      <c r="J50" s="108">
+      <c r="J50" s="102">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="K50" s="108">
+      <c r="K50" s="102">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="L50" s="111" t="s">
+      <c r="L50" s="105" t="s">
         <v>330</v>
       </c>
-      <c r="XFA50" s="109"/>
-      <c r="XFB50" s="110"/>
-      <c r="XFC50" s="109"/>
+      <c r="XFA50" s="103"/>
+      <c r="XFB50" s="104"/>
+      <c r="XFC50" s="103"/>
     </row>
-    <row r="51" spans="1:16383" s="111" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="101"/>
-      <c r="B51" s="103" t="s">
+    <row r="51" spans="1:16383" s="105" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="118"/>
+      <c r="B51" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="104" t="s">
+      <c r="C51" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="105" t="s">
+      <c r="D51" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="112" t="s">
+      <c r="E51" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="105" t="s">
+      <c r="F51" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="G51" s="106" t="s">
+      <c r="G51" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="H51" s="107">
+      <c r="H51" s="101">
         <v>1</v>
       </c>
-      <c r="I51" s="108">
+      <c r="I51" s="102">
         <v>20</v>
       </c>
-      <c r="J51" s="108">
+      <c r="J51" s="102">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="K51" s="108">
+      <c r="K51" s="102">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="L51" s="111" t="s">
+      <c r="L51" s="105" t="s">
         <v>330</v>
       </c>
-      <c r="XFA51" s="109"/>
-      <c r="XFB51" s="110"/>
-      <c r="XFC51" s="109"/>
+      <c r="XFA51" s="103"/>
+      <c r="XFB51" s="104"/>
+      <c r="XFC51" s="103"/>
     </row>
     <row r="52" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="101"/>
+      <c r="A52" s="118"/>
       <c r="B52" s="89" t="s">
         <v>161</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="XFC52" s="8"/>
     </row>
     <row r="53" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="101"/>
+      <c r="A53" s="118"/>
       <c r="B53" s="89" t="s">
         <v>165</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="XFC53" s="8"/>
     </row>
     <row r="54" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="101"/>
+      <c r="A54" s="118"/>
       <c r="B54" s="49" t="s">
         <v>169</v>
       </c>
@@ -3940,7 +3940,7 @@
       <c r="XFC54" s="8"/>
     </row>
     <row r="55" spans="1:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="101"/>
+      <c r="A55" s="118"/>
       <c r="B55" s="49" t="s">
         <v>174</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="XFC55" s="8"/>
     </row>
     <row r="56" spans="1:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="101"/>
+      <c r="A56" s="118"/>
       <c r="B56" s="49" t="s">
         <v>177</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="XFC56" s="8"/>
     </row>
     <row r="57" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="101"/>
+      <c r="A57" s="118"/>
       <c r="B57" s="49" t="s">
         <v>179</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="XFC57" s="8"/>
     </row>
     <row r="58" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="101"/>
+      <c r="A58" s="118"/>
       <c r="B58" s="49" t="s">
         <v>183</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="XFC58" s="8"/>
     </row>
     <row r="59" spans="1:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="101"/>
+      <c r="A59" s="118"/>
       <c r="B59" s="49" t="s">
         <v>186</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="XFC59" s="8"/>
     </row>
     <row r="60" spans="1:16383" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="101"/>
+      <c r="A60" s="118"/>
       <c r="B60" s="49"/>
       <c r="C60" s="50"/>
       <c r="D60" s="51"/>
@@ -4157,7 +4157,7 @@
       <c r="XFC61" s="8"/>
     </row>
     <row r="62" spans="1:16383" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="102" t="s">
+      <c r="A62" s="119" t="s">
         <v>189</v>
       </c>
       <c r="B62" s="29" t="s">
@@ -20561,7 +20561,7 @@
       <c r="XEZ62" s="8"/>
     </row>
     <row r="63" spans="1:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="102"/>
+      <c r="A63" s="119"/>
       <c r="B63" s="19" t="s">
         <v>194</v>
       </c>
@@ -20594,7 +20594,7 @@
       <c r="XFC63" s="8"/>
     </row>
     <row r="64" spans="1:16383" s="5" customFormat="1" ht="52.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="102"/>
+      <c r="A64" s="119"/>
       <c r="B64" s="19" t="s">
         <v>198</v>
       </c>
@@ -20627,7 +20627,7 @@
       <c r="XFC64" s="8"/>
     </row>
     <row r="65" spans="1:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="102"/>
+      <c r="A65" s="119"/>
       <c r="B65" s="19" t="s">
         <v>201</v>
       </c>
@@ -20660,7 +20660,7 @@
       <c r="XFC65" s="8"/>
     </row>
     <row r="66" spans="1:16383" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="102"/>
+      <c r="A66" s="119"/>
       <c r="B66" s="29" t="s">
         <v>204</v>
       </c>
@@ -37060,7 +37060,7 @@
       <c r="XFB66" s="8"/>
     </row>
     <row r="67" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="102"/>
+      <c r="A67" s="119"/>
       <c r="B67" s="19" t="s">
         <v>207</v>
       </c>
@@ -37093,7 +37093,7 @@
       <c r="XFC67" s="8"/>
     </row>
     <row r="68" spans="1:16383" s="5" customFormat="1" ht="52.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="102"/>
+      <c r="A68" s="119"/>
       <c r="B68" s="19" t="s">
         <v>210</v>
       </c>
@@ -37126,7 +37126,7 @@
       <c r="XFC68" s="8"/>
     </row>
     <row r="69" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="102"/>
+      <c r="A69" s="119"/>
       <c r="B69" s="19" t="s">
         <v>213</v>
       </c>
@@ -37162,7 +37162,7 @@
       <c r="XFC69" s="8"/>
     </row>
     <row r="70" spans="1:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="102"/>
+      <c r="A70" s="119"/>
       <c r="B70" s="19" t="s">
         <v>216</v>
       </c>
@@ -37196,7 +37196,7 @@
       <c r="XFC70" s="8"/>
     </row>
     <row r="71" spans="1:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="102"/>
+      <c r="A71" s="119"/>
       <c r="B71" s="72" t="s">
         <v>334</v>
       </c>
@@ -37229,7 +37229,7 @@
       <c r="XFC71" s="8"/>
     </row>
     <row r="72" spans="1:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="102"/>
+      <c r="A72" s="119"/>
       <c r="B72" s="72" t="s">
         <v>335</v>
       </c>
@@ -37262,7 +37262,7 @@
       <c r="XFC72" s="8"/>
     </row>
     <row r="73" spans="1:16383" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="102"/>
+      <c r="A73" s="119"/>
       <c r="B73" s="19" t="s">
         <v>219</v>
       </c>
@@ -37296,7 +37296,7 @@
       <c r="XFC73" s="8"/>
     </row>
     <row r="74" spans="1:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="102"/>
+      <c r="A74" s="119"/>
       <c r="B74" s="26" t="s">
         <v>220</v>
       </c>
@@ -37333,7 +37333,7 @@
       <c r="XFC74" s="8"/>
     </row>
     <row r="75" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="102"/>
+      <c r="A75" s="119"/>
       <c r="B75" s="19" t="s">
         <v>221</v>
       </c>
@@ -37367,7 +37367,7 @@
       <c r="XFC75" s="8"/>
     </row>
     <row r="76" spans="1:16383" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="102"/>
+      <c r="A76" s="119"/>
       <c r="B76" s="29" t="s">
         <v>224</v>
       </c>
@@ -53767,7 +53767,7 @@
       <c r="XFB76" s="8"/>
     </row>
     <row r="77" spans="1:16383" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="102"/>
+      <c r="A77" s="119"/>
       <c r="B77" s="61"/>
       <c r="C77" s="62"/>
       <c r="D77" s="59"/>
@@ -70171,7 +70171,7 @@
       <c r="XFC78" s="8"/>
     </row>
     <row r="79" spans="1:16383" s="28" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="97" t="s">
+      <c r="A79" s="114" t="s">
         <v>227</v>
       </c>
       <c r="B79" s="26" t="s">
@@ -70193,7 +70193,7 @@
       <c r="XFC79" s="8"/>
     </row>
     <row r="80" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="97"/>
+      <c r="A80" s="114"/>
       <c r="B80" s="26" t="s">
         <v>229</v>
       </c>
@@ -70213,7 +70213,7 @@
       <c r="XFC80" s="8"/>
     </row>
     <row r="81" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="97"/>
+      <c r="A81" s="114"/>
       <c r="B81" s="26" t="s">
         <v>85</v>
       </c>
@@ -70233,7 +70233,7 @@
       <c r="XFC81" s="8"/>
     </row>
     <row r="82" spans="1:11 16378:16383" s="7" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="97"/>
+      <c r="A82" s="114"/>
       <c r="B82" s="26" t="s">
         <v>230</v>
       </c>
@@ -70252,7 +70252,7 @@
       <c r="XFC82" s="8"/>
     </row>
     <row r="83" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="97"/>
+      <c r="A83" s="114"/>
       <c r="B83" s="19" t="s">
         <v>43</v>
       </c>
@@ -70286,7 +70286,7 @@
       <c r="XFC83" s="8"/>
     </row>
     <row r="84" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="97"/>
+      <c r="A84" s="114"/>
       <c r="B84" s="29" t="s">
         <v>231</v>
       </c>
@@ -70320,7 +70320,7 @@
       <c r="XFC84" s="8"/>
     </row>
     <row r="85" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="97"/>
+      <c r="A85" s="114"/>
       <c r="B85" s="29" t="s">
         <v>234</v>
       </c>
@@ -70354,7 +70354,7 @@
       <c r="XFC85" s="8"/>
     </row>
     <row r="86" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="97"/>
+      <c r="A86" s="114"/>
       <c r="B86" s="19" t="s">
         <v>49</v>
       </c>
@@ -70388,7 +70388,7 @@
       <c r="XFC86" s="8"/>
     </row>
     <row r="87" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="97"/>
+      <c r="A87" s="114"/>
       <c r="B87" s="82" t="s">
         <v>61</v>
       </c>
@@ -70427,7 +70427,7 @@
       <c r="XFC87" s="8"/>
     </row>
     <row r="88" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="97"/>
+      <c r="A88" s="114"/>
       <c r="B88" s="26" t="s">
         <v>58</v>
       </c>
@@ -70464,7 +70464,7 @@
       <c r="XFC88" s="8"/>
     </row>
     <row r="89" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="97"/>
+      <c r="A89" s="114"/>
       <c r="B89" s="26" t="s">
         <v>237</v>
       </c>
@@ -70501,7 +70501,7 @@
       <c r="XFC89" s="8"/>
     </row>
     <row r="90" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="97"/>
+      <c r="A90" s="114"/>
       <c r="B90" s="26" t="s">
         <v>240</v>
       </c>
@@ -70538,7 +70538,7 @@
       <c r="XFC90" s="8"/>
     </row>
     <row r="91" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="97"/>
+      <c r="A91" s="114"/>
       <c r="B91" s="19" t="s">
         <v>243</v>
       </c>
@@ -70572,7 +70572,7 @@
       <c r="XFC91" s="8"/>
     </row>
     <row r="92" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="97"/>
+      <c r="A92" s="114"/>
       <c r="B92" s="19" t="s">
         <v>246</v>
       </c>
@@ -70606,7 +70606,7 @@
       <c r="XFC92" s="8"/>
     </row>
     <row r="93" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="97"/>
+      <c r="A93" s="114"/>
       <c r="B93" s="19" t="s">
         <v>249</v>
       </c>
@@ -70640,7 +70640,7 @@
       <c r="XFC93" s="8"/>
     </row>
     <row r="94" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="97"/>
+      <c r="A94" s="114"/>
       <c r="B94" s="19" t="s">
         <v>252</v>
       </c>
@@ -70674,7 +70674,7 @@
       <c r="XFC94" s="8"/>
     </row>
     <row r="95" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="97"/>
+      <c r="A95" s="114"/>
       <c r="B95" s="19" t="s">
         <v>255</v>
       </c>
@@ -70708,7 +70708,7 @@
       <c r="XFC95" s="8"/>
     </row>
     <row r="96" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="97"/>
+      <c r="A96" s="114"/>
       <c r="B96" s="19" t="s">
         <v>258</v>
       </c>
@@ -70740,7 +70740,7 @@
       <c r="XFC96" s="8"/>
     </row>
     <row r="97" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="97"/>
+      <c r="A97" s="114"/>
       <c r="B97" s="19" t="s">
         <v>261</v>
       </c>
@@ -70774,7 +70774,7 @@
       <c r="XFC97" s="8"/>
     </row>
     <row r="98" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="97"/>
+      <c r="A98" s="114"/>
       <c r="B98" s="19" t="s">
         <v>264</v>
       </c>
@@ -70808,7 +70808,7 @@
       <c r="XFC98" s="8"/>
     </row>
     <row r="99" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="97"/>
+      <c r="A99" s="114"/>
       <c r="B99" s="19" t="s">
         <v>268</v>
       </c>
@@ -70842,7 +70842,7 @@
       <c r="XFC99" s="8"/>
     </row>
     <row r="100" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="97"/>
+      <c r="A100" s="114"/>
       <c r="B100" s="19" t="s">
         <v>271</v>
       </c>
@@ -70875,7 +70875,7 @@
       <c r="XFC100" s="8"/>
     </row>
     <row r="101" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="97"/>
+      <c r="A101" s="114"/>
       <c r="B101" s="19" t="s">
         <v>274</v>
       </c>
@@ -70908,7 +70908,7 @@
       <c r="XFC101" s="8"/>
     </row>
     <row r="102" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="97"/>
+      <c r="A102" s="114"/>
       <c r="B102" s="19" t="s">
         <v>277</v>
       </c>
@@ -70941,7 +70941,7 @@
       <c r="XFC102" s="8"/>
     </row>
     <row r="103" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="97"/>
+      <c r="A103" s="114"/>
       <c r="B103" s="72" t="s">
         <v>341</v>
       </c>
@@ -70972,7 +70972,7 @@
       <c r="XFC103" s="8"/>
     </row>
     <row r="104" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="97"/>
+      <c r="A104" s="114"/>
       <c r="B104" s="72" t="s">
         <v>280</v>
       </c>
@@ -71003,7 +71003,7 @@
       <c r="XFC104" s="8"/>
     </row>
     <row r="105" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="97"/>
+      <c r="A105" s="114"/>
       <c r="B105" s="19" t="s">
         <v>281</v>
       </c>
@@ -71023,7 +71023,7 @@
       <c r="XFC105" s="8"/>
     </row>
     <row r="106" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="97"/>
+      <c r="A106" s="114"/>
       <c r="B106" s="19" t="s">
         <v>282</v>
       </c>
@@ -71078,7 +71078,7 @@
       <c r="XFC108" s="8"/>
     </row>
     <row r="109" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="97" t="s">
+      <c r="A109" s="114" t="s">
         <v>283</v>
       </c>
       <c r="B109" s="19" t="s">
@@ -71114,7 +71114,7 @@
       <c r="XFC109" s="8"/>
     </row>
     <row r="110" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="97"/>
+      <c r="A110" s="114"/>
       <c r="B110" s="19" t="s">
         <v>288</v>
       </c>
@@ -71147,7 +71147,7 @@
       <c r="XFC110" s="8"/>
     </row>
     <row r="111" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="97"/>
+      <c r="A111" s="114"/>
       <c r="B111" s="19" t="s">
         <v>291</v>
       </c>
@@ -71180,7 +71180,7 @@
       <c r="XFC111" s="8"/>
     </row>
     <row r="112" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="97"/>
+      <c r="A112" s="114"/>
       <c r="B112" s="19" t="s">
         <v>294</v>
       </c>
@@ -71213,7 +71213,7 @@
       <c r="XFC112" s="8"/>
     </row>
     <row r="113" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="97"/>
+      <c r="A113" s="114"/>
       <c r="B113" s="26" t="s">
         <v>297</v>
       </c>
@@ -71246,7 +71246,7 @@
       <c r="XFC113" s="8"/>
     </row>
     <row r="114" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="97"/>
+      <c r="A114" s="114"/>
       <c r="B114" s="26" t="s">
         <v>300</v>
       </c>
@@ -71279,7 +71279,7 @@
       <c r="XFC114" s="8"/>
     </row>
     <row r="115" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="97"/>
+      <c r="A115" s="114"/>
       <c r="B115" s="26" t="s">
         <v>303</v>
       </c>
@@ -71312,7 +71312,7 @@
       <c r="XFC115" s="8"/>
     </row>
     <row r="116" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="97"/>
+      <c r="A116" s="114"/>
       <c r="B116" s="80" t="s">
         <v>345</v>
       </c>
@@ -71343,7 +71343,7 @@
       <c r="XFC116" s="8"/>
     </row>
     <row r="117" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="97"/>
+      <c r="A117" s="114"/>
       <c r="B117" s="80" t="s">
         <v>346</v>
       </c>
@@ -71374,7 +71374,7 @@
       <c r="XFC117" s="8"/>
     </row>
     <row r="118" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="97"/>
+      <c r="A118" s="114"/>
       <c r="B118" s="80" t="s">
         <v>346</v>
       </c>
@@ -71405,7 +71405,7 @@
       <c r="XFC118" s="8"/>
     </row>
     <row r="119" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="97"/>
+      <c r="A119" s="114"/>
       <c r="B119" s="26" t="s">
         <v>306</v>
       </c>
@@ -71442,7 +71442,7 @@
       <c r="XFC119" s="8"/>
     </row>
     <row r="120" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="97"/>
+      <c r="A120" s="114"/>
       <c r="B120" s="19" t="s">
         <v>309</v>
       </c>
@@ -71476,7 +71476,7 @@
       <c r="XFC120" s="8"/>
     </row>
     <row r="121" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="97"/>
+      <c r="A121" s="114"/>
       <c r="B121" s="19" t="s">
         <v>313</v>
       </c>
@@ -71512,7 +71512,7 @@
       <c r="XFC121" s="8"/>
     </row>
     <row r="122" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="97"/>
+      <c r="A122" s="114"/>
       <c r="B122" s="19" t="s">
         <v>317</v>
       </c>
@@ -71546,7 +71546,7 @@
       <c r="XFC122" s="8"/>
     </row>
     <row r="123" spans="1:12 16381:16383" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="97"/>
+      <c r="A123" s="114"/>
       <c r="B123" s="21"/>
       <c r="C123" s="21"/>
       <c r="D123" s="21"/>
@@ -71642,11 +71642,11 @@
       <c r="E127" s="21"/>
       <c r="F127" s="24"/>
       <c r="G127" s="21"/>
-      <c r="H127" s="98" t="s">
+      <c r="H127" s="115" t="s">
         <v>325</v>
       </c>
-      <c r="I127" s="98"/>
-      <c r="J127" s="98"/>
+      <c r="I127" s="115"/>
+      <c r="J127" s="115"/>
       <c r="K127" s="68">
         <f>K34+K60+K77+K107+K123+K125</f>
         <v>3989.0200000000004</v>

--- a/docs/pictures/sourcing/Nomenclature_KOSMOS4.0_projet_IUEM.xlsx
+++ b/docs/pictures/sourcing/Nomenclature_KOSMOS4.0_projet_IUEM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofauvarq\Documents\GitHub\DocV4\docs\pictures\sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D922592F-9854-4986-81F0-E5738C785EAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3714EE34-9BC9-4DD6-9C64-C4097D4B92A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2132,8 +2132,8 @@
   <dimension ref="A1:XFC181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:A60"/>
+      <pane ySplit="3" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="E1" s="10">
         <f ca="1">TODAY()</f>
-        <v>45742</v>
+        <v>45743</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>373</v>
